--- a/LinkedinMaven/src/test/resources/TestData/Practice.xlsx
+++ b/LinkedinMaven/src/test/resources/TestData/Practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\git\Dnyanus_Workspace\LinkedinMaven\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B68F3-F832-4F8B-9CE9-66FABEC0C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042AB81F-7228-43BC-B939-10CBE1E7AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8240" yWindow="2700" windowWidth="7960" windowHeight="7220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Linkedin</t>
   </si>
   <si>
-    <t>djavhade@gmail.com</t>
-  </si>
-  <si>
     <t>YouTube</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Dnyanu@321</t>
+  </si>
+  <si>
+    <t>djavhade2697@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -487,8 +487,8 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -518,21 +518,21 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -540,32 +540,33 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>7757834909</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{C7391F7E-065A-49AA-928F-E28FB8AE6CD5}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{520C7016-872E-4558-A55A-514FBB00DFDA}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0E2446E2-774F-4544-BBD5-6427E0ECBA85}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>